--- a/biology/Origine et évolution du vivant/Psocodea_(classification_phylogénétique)/Psocodea_(classification_phylogénétique).xlsx
+++ b/biology/Origine et évolution du vivant/Psocodea_(classification_phylogénétique)/Psocodea_(classification_phylogénétique).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Psocodea_(classification_phylog%C3%A9n%C3%A9tique)</t>
+          <t>Psocodea_(classification_phylogénétique)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette page a pour objet de présenter un arbre phylogénétique des Psocodea (Psocoptères et Phthiraptères), c'est-à-dire un cladogramme mettant en lumière les relations de parenté existant entre leurs différents groupes (ou taxa), telles que les dernières analyses reconnues les proposent. Ce n'est qu'une possibilité, et les principaux débats qui subsistent au sein de la communauté scientifique sont brièvement présentés ci-dessous, avant la bibliographie.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Psocodea_(classification_phylog%C3%A9n%C3%A9tique)</t>
+          <t>Psocodea_(classification_phylogénétique)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Arbre phylogénétique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cladogramme présenté ici ne possède qu'une valeur indicative. Il n'est pas forcément consensuel, et on peut toujours se référer à la bibliographie au bas de l'article.
 Le symbole ▲ renvoie à la partie immédiatement supérieure de l'arbre phylogénétique du vivant. Le signe ► renvoie à la classification phylogénétique du groupe considéré. Tout nœud de l'arbre portant plus de deux branches montre une indétermination de la phylogénie interne du groupe considéré.
@@ -716,7 +730,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Psocodea_(classification_phylog%C3%A9n%C3%A9tique)</t>
+          <t>Psocodea_(classification_phylogénétique)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -734,7 +748,9 @@
           <t>Débat scientifique relatif à la phylogénie des Psocodea</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Psocodea regroupent les anciens Psocoptera et Phthiraptera, les seconds, parasites, semblant être apparus à deux reprises (groupement polyphylétique ?) au sein des premiers (qui forment donc un groupe paraphylétique), parmi les Troctomorpha.
 La phylogénie des Ischnocera n'est pas élucidée, l'analyse des données morphologiques et moléculaires produisant des résultats incompatibles entre eux. La classification d'Eichler (1963) semble en tout cas être obsolète, nombre de ses familles et sous-familles étant paraphylétiques.
@@ -748,7 +764,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Psocodea_(classification_phylog%C3%A9n%C3%A9tique)</t>
+          <t>Psocodea_(classification_phylogénétique)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -768,18 +784,91 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sources bibliographiques de référence
-Yoshizawa, K. et K. P. Johnson. 2006. « Morphology of male genitalia in lice and their relatives and phylogenetic implications ». Systematic Entomology 31: 350-361.
+          <t>Sources bibliographiques de référence</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Yoshizawa, K. et K. P. Johnson. 2006. « Morphology of male genitalia in lice and their relatives and phylogenetic implications ». Systematic Entomology 31: 350-361.
 Johnson, K. P., Yoshizawa, K. et V. S. Smith. 2004. « Multiple origins of parasitism in lice ». Proceedings of the Royal Society of London 271: 1771-1776.
 Smith, Vincent S., Page, Roderic D.M. et Johnson, Kevin P. 2004. « Data incongruence and the problem of avian louse phylogeny ». Zoologica Scripta 33(3):239-259
 Yoshizawa, K. 2002. « Phylogeny and higher classification of suborder Psocomorpha (Insecta: Psocodea:'Psocoptera') ». Zoological Journal of the Linnean Society 136: 371-400.
-Johnson, Kevin P., Adams, Richard J., et Clayton, Dale H. 2001. « Molecular systematics of Goniodidae (Insecta: Phthiraptera) », J. Parasitol., 87(4), 2001, p. 862–869
-Sources internet
-Psoco Net
+Johnson, Kevin P., Adams, Richard J., et Clayton, Dale H. 2001. « Molecular systematics of Goniodidae (Insecta: Phthiraptera) », J. Parasitol., 87(4), 2001, p. 862–869</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Psocodea_(classification_phylogénétique)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Origine et évolution du vivant/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Psocodea_(classification_phylog%C3%A9n%C3%A9tique)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>En savoir plus</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Sources internet</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Psoco Net
 Charles Lienhard, 2002, « Classification of Psocoptera (with checklist of genera) »
-The Tree of Life Web Project
-Liens internes
-Arbre phylogénétique
+The Tree of Life Web Project</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Psocodea_(classification_phylogénétique)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Origine et évolution du vivant/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Psocodea_(classification_phylog%C3%A9n%C3%A9tique)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>En savoir plus</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Liens internes</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Arbre phylogénétique
 Vivant (classification phylogénétique)
 Eukaryota (classification phylogénétique)
 Opisthokonta (classification phylogénétique)
